--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faa3f9bfbb5dc780/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1478" documentId="8_{1974EFBA-A01C-4953-9AA1-C192E035EFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7FBE7C-3F7A-4617-A235-88E1A62C12B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7B1F7-7DE4-4DB3-9CE6-26DDF24AA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="12120" yWindow="1440" windowWidth="15525" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="159">
   <si>
     <t>Wizards</t>
   </si>
@@ -520,17 +519,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,16 +562,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5892,4981 +5877,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4456D73-17DA-4D08-917A-13DB97EABC2D}">
-  <dimension ref="A1:D354"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7B1F7-7DE4-4DB3-9CE6-26DDF24AA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D9916-CE29-4977-8791-5F114B14F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="1440" windowWidth="15525" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5025,7 +5025,7 @@
         <v>26</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>12</v>

--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D9916-CE29-4977-8791-5F114B14F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3A092-F112-4860-8420-45BA6127E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="1440" windowWidth="15525" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14595" windowHeight="15585" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="161">
   <si>
     <t>Wizards</t>
   </si>
@@ -513,13 +513,19 @@
   </si>
   <si>
     <t>17x19</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>DreamHack Winter Major 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +537,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -904,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,9 +928,10 @@
     <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,8 +944,11 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,8 +961,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +978,11 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,8 +995,11 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,8 +1012,11 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1001,8 +1029,11 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1015,8 +1046,11 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1029,8 +1063,11 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1043,8 +1080,11 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1057,8 +1097,11 @@
       <c r="D10" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1114,11 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1085,8 +1131,11 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1099,8 +1148,11 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1113,8 +1165,11 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1127,8 +1182,11 @@
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1141,8 +1199,11 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1155,8 +1216,11 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1169,8 +1233,11 @@
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1183,8 +1250,11 @@
       <c r="D19" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1197,8 +1267,11 @@
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1211,8 +1284,11 @@
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1225,8 +1301,11 @@
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -1239,8 +1318,11 @@
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1253,8 +1335,11 @@
       <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
@@ -1267,8 +1352,11 @@
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1281,8 +1369,11 @@
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -1295,8 +1386,11 @@
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1309,8 +1403,11 @@
       <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1323,8 +1420,11 @@
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -1337,8 +1437,11 @@
       <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1351,8 +1454,11 @@
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -1365,8 +1471,11 @@
       <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -1379,8 +1488,11 @@
       <c r="D33" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -1393,8 +1505,11 @@
       <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -1407,8 +1522,11 @@
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -1421,8 +1539,11 @@
       <c r="D36" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
@@ -1435,8 +1556,11 @@
       <c r="D37" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -1449,8 +1573,11 @@
       <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -1463,8 +1590,11 @@
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -1477,8 +1607,11 @@
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -1491,8 +1624,11 @@
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -1505,8 +1641,11 @@
       <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -1519,8 +1658,11 @@
       <c r="D43" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
@@ -1533,8 +1675,11 @@
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1547,8 +1692,11 @@
       <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -1561,8 +1709,11 @@
       <c r="D46" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1575,8 +1726,11 @@
       <c r="D47" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -1589,8 +1743,11 @@
       <c r="D48" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -1603,8 +1760,11 @@
       <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -1617,8 +1777,11 @@
       <c r="D50" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -1631,8 +1794,11 @@
       <c r="D51" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -1645,8 +1811,11 @@
       <c r="D52" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -1659,8 +1828,11 @@
       <c r="D53" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>119</v>
       </c>
@@ -1673,8 +1845,11 @@
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -1687,8 +1862,11 @@
       <c r="D55" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -1701,8 +1879,11 @@
       <c r="D56" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -1715,8 +1896,11 @@
       <c r="D57" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -1729,8 +1913,11 @@
       <c r="D58" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -1743,8 +1930,11 @@
       <c r="D59" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -1757,8 +1947,11 @@
       <c r="D60" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -1771,8 +1964,11 @@
       <c r="D61" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -1785,8 +1981,11 @@
       <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,8 +1998,11 @@
       <c r="D63" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,8 +2015,11 @@
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1827,8 +2032,11 @@
       <c r="D65" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,8 +2049,11 @@
       <c r="D66" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,8 +2066,11 @@
       <c r="D67" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -1869,8 +2083,11 @@
       <c r="D68" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -1883,8 +2100,11 @@
       <c r="D69" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -1897,8 +2117,11 @@
       <c r="D70" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,8 +2134,11 @@
       <c r="D71" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +2151,11 @@
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,8 +2168,11 @@
       <c r="D73" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2185,11 @@
       <c r="D74" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -1967,8 +2202,11 @@
       <c r="D75" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -1981,8 +2219,11 @@
       <c r="D76" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
@@ -1995,8 +2236,11 @@
       <c r="D77" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2009,8 +2253,11 @@
       <c r="D78" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,8 +2270,11 @@
       <c r="D79" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -2037,8 +2287,11 @@
       <c r="D80" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -2051,8 +2304,11 @@
       <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
@@ -2065,8 +2321,11 @@
       <c r="D82" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -2079,8 +2338,11 @@
       <c r="D83" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>47</v>
       </c>
@@ -2093,8 +2355,11 @@
       <c r="D84" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -2107,8 +2372,11 @@
       <c r="D85" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
@@ -2121,8 +2389,11 @@
       <c r="D86" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>15</v>
       </c>
@@ -2135,8 +2406,11 @@
       <c r="D87" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
@@ -2149,8 +2423,11 @@
       <c r="D88" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -2163,8 +2440,11 @@
       <c r="D89" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -2177,8 +2457,11 @@
       <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -2191,8 +2474,11 @@
       <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -2205,8 +2491,11 @@
       <c r="D92" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -2219,8 +2508,11 @@
       <c r="D93" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>36</v>
       </c>
@@ -2233,8 +2525,11 @@
       <c r="D94" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>36</v>
       </c>
@@ -2247,8 +2542,11 @@
       <c r="D95" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
@@ -2261,8 +2559,11 @@
       <c r="D96" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -2275,8 +2576,11 @@
       <c r="D97" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>15</v>
       </c>
@@ -2289,8 +2593,11 @@
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -2303,8 +2610,11 @@
       <c r="D99" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -2317,8 +2627,11 @@
       <c r="D100" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,8 +2644,11 @@
       <c r="D101" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -2345,8 +2661,11 @@
       <c r="D102" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>128</v>
       </c>
@@ -2359,8 +2678,11 @@
       <c r="D103" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
@@ -2373,8 +2695,11 @@
       <c r="D104" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>34</v>
       </c>
@@ -2387,8 +2712,11 @@
       <c r="D105" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>34</v>
       </c>
@@ -2401,8 +2729,11 @@
       <c r="D106" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>36</v>
       </c>
@@ -2415,8 +2746,11 @@
       <c r="D107" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>36</v>
       </c>
@@ -2429,8 +2763,11 @@
       <c r="D108" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>15</v>
       </c>
@@ -2443,8 +2780,11 @@
       <c r="D109" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>15</v>
       </c>
@@ -2457,8 +2797,11 @@
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>15</v>
       </c>
@@ -2471,8 +2814,11 @@
       <c r="D111" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>29</v>
       </c>
@@ -2485,8 +2831,11 @@
       <c r="D112" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -2499,8 +2848,11 @@
       <c r="D113" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
@@ -2513,8 +2865,11 @@
       <c r="D114" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -2527,8 +2882,11 @@
       <c r="D115" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
@@ -2541,8 +2899,11 @@
       <c r="D116" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -2555,8 +2916,11 @@
       <c r="D117" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -2569,8 +2933,11 @@
       <c r="D118" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,8 +2950,11 @@
       <c r="D119" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>52</v>
       </c>
@@ -2597,8 +2967,11 @@
       <c r="D120" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>64</v>
       </c>
@@ -2611,8 +2984,11 @@
       <c r="D121" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>64</v>
       </c>
@@ -2625,8 +3001,11 @@
       <c r="D122" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>75</v>
       </c>
@@ -2639,8 +3018,11 @@
       <c r="D123" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>75</v>
       </c>
@@ -2653,8 +3035,11 @@
       <c r="D124" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -2667,8 +3052,11 @@
       <c r="D125" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -2681,8 +3069,11 @@
       <c r="D126" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -2695,8 +3086,11 @@
       <c r="D127" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -2709,8 +3103,11 @@
       <c r="D128" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
@@ -2723,8 +3120,11 @@
       <c r="D129" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -2737,8 +3137,11 @@
       <c r="D130" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -2751,8 +3154,11 @@
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>127</v>
       </c>
@@ -2765,8 +3171,11 @@
       <c r="D132" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -2779,8 +3188,11 @@
       <c r="D133" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>75</v>
       </c>
@@ -2793,8 +3205,11 @@
       <c r="D134" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>75</v>
       </c>
@@ -2807,8 +3222,11 @@
       <c r="D135" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,8 +3239,11 @@
       <c r="D136" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>75</v>
       </c>
@@ -2835,8 +3256,11 @@
       <c r="D137" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -2849,8 +3273,11 @@
       <c r="D138" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -2863,8 +3290,11 @@
       <c r="D139" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>60</v>
       </c>
@@ -2877,8 +3307,11 @@
       <c r="D140" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>60</v>
       </c>
@@ -2891,8 +3324,11 @@
       <c r="D141" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -2905,8 +3341,11 @@
       <c r="D142" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -2919,8 +3358,11 @@
       <c r="D143" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3375,11 @@
       <c r="D144" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>82</v>
       </c>
@@ -2947,8 +3392,11 @@
       <c r="D145" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>82</v>
       </c>
@@ -2961,8 +3409,11 @@
       <c r="D146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>77</v>
       </c>
@@ -2975,8 +3426,11 @@
       <c r="D147" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>77</v>
       </c>
@@ -2989,8 +3443,11 @@
       <c r="D148" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>57</v>
       </c>
@@ -3003,8 +3460,11 @@
       <c r="D149" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,8 +3477,11 @@
       <c r="D150" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>57</v>
       </c>
@@ -3031,8 +3494,11 @@
       <c r="D151" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>67</v>
       </c>
@@ -3045,8 +3511,11 @@
       <c r="D152" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,8 +3528,11 @@
       <c r="D153" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>67</v>
       </c>
@@ -3073,8 +3545,11 @@
       <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>77</v>
       </c>
@@ -3087,8 +3562,11 @@
       <c r="D155" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>77</v>
       </c>
@@ -3101,8 +3579,11 @@
       <c r="D156" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>74</v>
       </c>
@@ -3115,8 +3596,11 @@
       <c r="D157" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>74</v>
       </c>
@@ -3129,8 +3613,11 @@
       <c r="D158" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>74</v>
       </c>
@@ -3143,8 +3630,11 @@
       <c r="D159" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>126</v>
       </c>
@@ -3157,8 +3647,11 @@
       <c r="D160" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>126</v>
       </c>
@@ -3171,8 +3664,11 @@
       <c r="D161" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>82</v>
       </c>
@@ -3185,8 +3681,11 @@
       <c r="D162" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>82</v>
       </c>
@@ -3199,8 +3698,11 @@
       <c r="D163" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>82</v>
       </c>
@@ -3213,8 +3715,11 @@
       <c r="D164" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>57</v>
       </c>
@@ -3227,8 +3732,11 @@
       <c r="D165" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>57</v>
       </c>
@@ -3241,8 +3749,11 @@
       <c r="D166" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
@@ -3255,8 +3766,11 @@
       <c r="D167" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
@@ -3269,8 +3783,11 @@
       <c r="D168" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>82</v>
       </c>
@@ -3283,8 +3800,11 @@
       <c r="D169" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>82</v>
       </c>
@@ -3297,8 +3817,11 @@
       <c r="D170" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>82</v>
       </c>
@@ -3311,8 +3834,11 @@
       <c r="D171" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>138</v>
       </c>
@@ -3325,8 +3851,11 @@
       <c r="D172" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>138</v>
       </c>
@@ -3339,8 +3868,11 @@
       <c r="D173" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>138</v>
       </c>
@@ -3353,8 +3885,11 @@
       <c r="D174" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>124</v>
       </c>
@@ -3367,8 +3902,11 @@
       <c r="D175" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>124</v>
       </c>
@@ -3381,8 +3919,11 @@
       <c r="D176" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>111</v>
       </c>
@@ -3395,8 +3936,11 @@
       <c r="D177" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>111</v>
       </c>
@@ -3409,8 +3953,11 @@
       <c r="D178" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>111</v>
       </c>
@@ -3423,8 +3970,11 @@
       <c r="D179" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
@@ -3437,8 +3987,11 @@
       <c r="D180" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>105</v>
       </c>
@@ -3451,8 +4004,11 @@
       <c r="D181" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>124</v>
       </c>
@@ -3465,8 +4021,11 @@
       <c r="D182" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>124</v>
       </c>
@@ -3479,8 +4038,11 @@
       <c r="D183" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>124</v>
       </c>
@@ -3493,8 +4055,11 @@
       <c r="D184" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>111</v>
       </c>
@@ -3507,8 +4072,11 @@
       <c r="D185" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>111</v>
       </c>
@@ -3521,8 +4089,11 @@
       <c r="D186" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>138</v>
       </c>
@@ -3535,8 +4106,11 @@
       <c r="D187" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>138</v>
       </c>
@@ -3549,8 +4123,11 @@
       <c r="D188" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>138</v>
       </c>
@@ -3563,8 +4140,11 @@
       <c r="D189" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>130</v>
       </c>
@@ -3577,8 +4157,11 @@
       <c r="D190" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>130</v>
       </c>
@@ -3591,8 +4174,11 @@
       <c r="D191" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>138</v>
       </c>
@@ -3605,8 +4191,11 @@
       <c r="D192" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>138</v>
       </c>
@@ -3619,8 +4208,11 @@
       <c r="D193" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>124</v>
       </c>
@@ -3633,8 +4225,11 @@
       <c r="D194" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>124</v>
       </c>
@@ -3647,8 +4242,11 @@
       <c r="D195" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>124</v>
       </c>
@@ -3661,8 +4259,11 @@
       <c r="D196" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>107</v>
       </c>
@@ -3675,8 +4276,11 @@
       <c r="D197" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>107</v>
       </c>
@@ -3689,8 +4293,11 @@
       <c r="D198" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>107</v>
       </c>
@@ -3703,8 +4310,11 @@
       <c r="D199" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>138</v>
       </c>
@@ -3717,8 +4327,11 @@
       <c r="D200" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>138</v>
       </c>
@@ -3731,8 +4344,11 @@
       <c r="D201" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>138</v>
       </c>
@@ -3745,8 +4361,11 @@
       <c r="D202" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>91</v>
       </c>
@@ -3759,8 +4378,11 @@
       <c r="D203" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>91</v>
       </c>
@@ -3773,8 +4395,11 @@
       <c r="D204" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>91</v>
       </c>
@@ -3787,8 +4412,11 @@
       <c r="D205" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>135</v>
       </c>
@@ -3801,8 +4429,11 @@
       <c r="D206" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>135</v>
       </c>
@@ -3815,8 +4446,11 @@
       <c r="D207" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>133</v>
       </c>
@@ -3829,8 +4463,11 @@
       <c r="D208" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>133</v>
       </c>
@@ -3843,8 +4480,11 @@
       <c r="D209" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>133</v>
       </c>
@@ -3857,8 +4497,11 @@
       <c r="D210" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>120</v>
       </c>
@@ -3871,8 +4514,11 @@
       <c r="D211" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>120</v>
       </c>
@@ -3885,8 +4531,11 @@
       <c r="D212" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>85</v>
       </c>
@@ -3899,8 +4548,11 @@
       <c r="D213" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>85</v>
       </c>
@@ -3913,8 +4565,11 @@
       <c r="D214" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>119</v>
       </c>
@@ -3927,8 +4582,11 @@
       <c r="D215" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>119</v>
       </c>
@@ -3941,8 +4599,11 @@
       <c r="D216" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>91</v>
       </c>
@@ -3955,8 +4616,11 @@
       <c r="D217" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>91</v>
       </c>
@@ -3969,8 +4633,11 @@
       <c r="D218" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>91</v>
       </c>
@@ -3983,8 +4650,11 @@
       <c r="D219" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>133</v>
       </c>
@@ -3997,8 +4667,11 @@
       <c r="D220" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>133</v>
       </c>
@@ -4011,8 +4684,11 @@
       <c r="D221" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>133</v>
       </c>
@@ -4025,8 +4701,11 @@
       <c r="D222" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>133</v>
       </c>
@@ -4039,8 +4718,11 @@
       <c r="D223" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>133</v>
       </c>
@@ -4053,8 +4735,11 @@
       <c r="D224" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>91</v>
       </c>
@@ -4067,8 +4752,11 @@
       <c r="D225" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>91</v>
       </c>
@@ -4081,8 +4769,11 @@
       <c r="D226" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>135</v>
       </c>
@@ -4095,8 +4786,11 @@
       <c r="D227" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>135</v>
       </c>
@@ -4109,8 +4803,11 @@
       <c r="D228" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>85</v>
       </c>
@@ -4123,8 +4820,11 @@
       <c r="D229" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>85</v>
       </c>
@@ -4137,8 +4837,11 @@
       <c r="D230" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>117</v>
       </c>
@@ -4151,8 +4854,11 @@
       <c r="D231" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>117</v>
       </c>
@@ -4165,8 +4871,11 @@
       <c r="D232" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>136</v>
       </c>
@@ -4179,8 +4888,11 @@
       <c r="D233" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>136</v>
       </c>
@@ -4193,8 +4905,11 @@
       <c r="D234" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>136</v>
       </c>
@@ -4207,8 +4922,11 @@
       <c r="D235" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>116</v>
       </c>
@@ -4221,8 +4939,11 @@
       <c r="D236" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>116</v>
       </c>
@@ -4235,8 +4956,11 @@
       <c r="D237" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>98</v>
       </c>
@@ -4249,8 +4973,11 @@
       <c r="D238" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>98</v>
       </c>
@@ -4263,8 +4990,11 @@
       <c r="D239" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>98</v>
       </c>
@@ -4277,8 +5007,11 @@
       <c r="D240" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>117</v>
       </c>
@@ -4291,8 +5024,11 @@
       <c r="D241" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>117</v>
       </c>
@@ -4305,8 +5041,11 @@
       <c r="D242" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>87</v>
       </c>
@@ -4319,8 +5058,11 @@
       <c r="D243" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>87</v>
       </c>
@@ -4333,8 +5075,11 @@
       <c r="D244" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>87</v>
       </c>
@@ -4347,8 +5092,11 @@
       <c r="D245" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>97</v>
       </c>
@@ -4361,8 +5109,11 @@
       <c r="D246" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>97</v>
       </c>
@@ -4375,8 +5126,11 @@
       <c r="D247" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>97</v>
       </c>
@@ -4389,8 +5143,11 @@
       <c r="D248" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>116</v>
       </c>
@@ -4403,8 +5160,11 @@
       <c r="D249" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>116</v>
       </c>
@@ -4417,8 +5177,11 @@
       <c r="D250" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>116</v>
       </c>
@@ -4431,8 +5194,11 @@
       <c r="D251" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>117</v>
       </c>
@@ -4445,8 +5211,11 @@
       <c r="D252" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>117</v>
       </c>
@@ -4459,8 +5228,11 @@
       <c r="D253" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>117</v>
       </c>
@@ -4473,8 +5245,11 @@
       <c r="D254" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>88</v>
       </c>
@@ -4487,8 +5262,11 @@
       <c r="D255" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>88</v>
       </c>
@@ -4501,8 +5279,11 @@
       <c r="D256" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>88</v>
       </c>
@@ -4515,8 +5296,11 @@
       <c r="D257" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>97</v>
       </c>
@@ -4529,8 +5313,11 @@
       <c r="D258" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>97</v>
       </c>
@@ -4543,8 +5330,11 @@
       <c r="D259" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>116</v>
       </c>
@@ -4557,8 +5347,11 @@
       <c r="D260" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>116</v>
       </c>
@@ -4571,8 +5364,11 @@
       <c r="D261" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>123</v>
       </c>
@@ -4585,8 +5381,11 @@
       <c r="D262" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>123</v>
       </c>
@@ -4599,8 +5398,11 @@
       <c r="D263" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>72</v>
       </c>
@@ -4613,8 +5415,11 @@
       <c r="D264" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>72</v>
       </c>
@@ -4627,8 +5432,11 @@
       <c r="D265" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>78</v>
       </c>
@@ -4641,8 +5449,11 @@
       <c r="D266" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>78</v>
       </c>
@@ -4655,8 +5466,11 @@
       <c r="D267" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>78</v>
       </c>
@@ -4669,8 +5483,11 @@
       <c r="D268" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>155</v>
       </c>
@@ -4683,8 +5500,11 @@
       <c r="D269" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>155</v>
       </c>
@@ -4697,8 +5517,11 @@
       <c r="D270" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>80</v>
       </c>
@@ -4711,8 +5534,11 @@
       <c r="D271" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>80</v>
       </c>
@@ -4725,8 +5551,11 @@
       <c r="D272" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>80</v>
       </c>
@@ -4739,8 +5568,11 @@
       <c r="D273" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>78</v>
       </c>
@@ -4753,8 +5585,11 @@
       <c r="D274" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>78</v>
       </c>
@@ -4767,8 +5602,11 @@
       <c r="D275" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>78</v>
       </c>
@@ -4781,8 +5619,11 @@
       <c r="D276" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>80</v>
       </c>
@@ -4795,8 +5636,11 @@
       <c r="D277" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>80</v>
       </c>
@@ -4809,8 +5653,11 @@
       <c r="D278" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>57</v>
       </c>
@@ -4823,8 +5670,11 @@
       <c r="D279" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>57</v>
       </c>
@@ -4837,8 +5687,11 @@
       <c r="D280" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>52</v>
       </c>
@@ -4851,8 +5704,11 @@
       <c r="D281" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>52</v>
       </c>
@@ -4865,8 +5721,11 @@
       <c r="D282" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>138</v>
       </c>
@@ -4879,8 +5738,11 @@
       <c r="D283" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>138</v>
       </c>
@@ -4893,8 +5755,11 @@
       <c r="D284" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>138</v>
       </c>
@@ -4907,8 +5772,11 @@
       <c r="D285" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>116</v>
       </c>
@@ -4921,8 +5789,11 @@
       <c r="D286" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>116</v>
       </c>
@@ -4935,8 +5806,11 @@
       <c r="D287" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>116</v>
       </c>
@@ -4949,8 +5823,11 @@
       <c r="D288" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>57</v>
       </c>
@@ -4963,8 +5840,11 @@
       <c r="D289" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
@@ -4977,8 +5857,11 @@
       <c r="D290" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>138</v>
       </c>
@@ -4991,8 +5874,11 @@
       <c r="D291" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>138</v>
       </c>
@@ -5005,8 +5891,11 @@
       <c r="D292" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>138</v>
       </c>
@@ -5019,8 +5908,11 @@
       <c r="D293" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>26</v>
       </c>
@@ -5033,8 +5925,11 @@
       <c r="D294" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>82</v>
       </c>
@@ -5047,8 +5942,11 @@
       <c r="D295" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>85</v>
       </c>
@@ -5061,8 +5959,11 @@
       <c r="D296" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>15</v>
       </c>
@@ -5075,8 +5976,11 @@
       <c r="D297" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>88</v>
       </c>
@@ -5089,8 +5993,11 @@
       <c r="D298" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>107</v>
       </c>
@@ -5103,8 +6010,11 @@
       <c r="D299" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>79</v>
       </c>
@@ -5117,8 +6027,11 @@
       <c r="D300" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -5131,8 +6044,11 @@
       <c r="D301" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>124</v>
       </c>
@@ -5145,8 +6061,11 @@
       <c r="D302" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>82</v>
       </c>
@@ -5159,8 +6078,11 @@
       <c r="D303" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>15</v>
       </c>
@@ -5173,8 +6095,11 @@
       <c r="D304" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>26</v>
       </c>
@@ -5187,8 +6112,11 @@
       <c r="D305" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>67</v>
       </c>
@@ -5201,8 +6129,11 @@
       <c r="D306" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -5215,8 +6146,11 @@
       <c r="D307" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>30</v>
       </c>
@@ -5229,8 +6163,11 @@
       <c r="D308" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>88</v>
       </c>
@@ -5243,8 +6180,11 @@
       <c r="D309" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>15</v>
       </c>
@@ -5257,8 +6197,11 @@
       <c r="D310" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>15</v>
       </c>
@@ -5271,8 +6214,11 @@
       <c r="D311" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>85</v>
       </c>
@@ -5285,8 +6231,11 @@
       <c r="D312" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>85</v>
       </c>
@@ -5299,8 +6248,11 @@
       <c r="D313" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>85</v>
       </c>
@@ -5313,8 +6265,11 @@
       <c r="D314" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>79</v>
       </c>
@@ -5327,8 +6282,11 @@
       <c r="D315" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>67</v>
       </c>
@@ -5341,8 +6299,11 @@
       <c r="D316" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>124</v>
       </c>
@@ -5355,8 +6316,11 @@
       <c r="D317" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>82</v>
       </c>
@@ -5369,8 +6333,11 @@
       <c r="D318" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>138</v>
       </c>
@@ -5383,8 +6350,11 @@
       <c r="D319" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>138</v>
       </c>
@@ -5397,8 +6367,11 @@
       <c r="D320" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>69</v>
       </c>
@@ -5411,8 +6384,11 @@
       <c r="D321" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>69</v>
       </c>
@@ -5425,8 +6401,11 @@
       <c r="D322" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>69</v>
       </c>
@@ -5439,8 +6418,11 @@
       <c r="D323" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>124</v>
       </c>
@@ -5453,8 +6435,11 @@
       <c r="D324" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>124</v>
       </c>
@@ -5467,8 +6452,11 @@
       <c r="D325" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>124</v>
       </c>
@@ -5481,8 +6469,11 @@
       <c r="D326" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>26</v>
       </c>
@@ -5495,8 +6486,11 @@
       <c r="D327" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>26</v>
       </c>
@@ -5509,8 +6503,11 @@
       <c r="D328" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>30</v>
       </c>
@@ -5523,8 +6520,11 @@
       <c r="D329" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>30</v>
       </c>
@@ -5537,8 +6537,11 @@
       <c r="D330" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>79</v>
       </c>
@@ -5551,8 +6554,11 @@
       <c r="D331" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>79</v>
       </c>
@@ -5565,8 +6571,11 @@
       <c r="D332" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>79</v>
       </c>
@@ -5579,8 +6588,11 @@
       <c r="D333" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>100</v>
       </c>
@@ -5593,8 +6605,11 @@
       <c r="D334" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>100</v>
       </c>
@@ -5607,8 +6622,11 @@
       <c r="D335" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>107</v>
       </c>
@@ -5621,8 +6639,11 @@
       <c r="D336" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>107</v>
       </c>
@@ -5635,8 +6656,11 @@
       <c r="D337" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>107</v>
       </c>
@@ -5649,8 +6673,11 @@
       <c r="D338" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>26</v>
       </c>
@@ -5663,8 +6690,11 @@
       <c r="D339" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>26</v>
       </c>
@@ -5677,8 +6707,11 @@
       <c r="D340" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>26</v>
       </c>
@@ -5691,8 +6724,11 @@
       <c r="D341" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>67</v>
       </c>
@@ -5705,8 +6741,11 @@
       <c r="D342" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>67</v>
       </c>
@@ -5719,8 +6758,11 @@
       <c r="D343" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>30</v>
       </c>
@@ -5733,8 +6775,11 @@
       <c r="D344" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>30</v>
       </c>
@@ -5747,8 +6792,11 @@
       <c r="D345" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>30</v>
       </c>
@@ -5761,8 +6809,11 @@
       <c r="D346" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>29</v>
       </c>
@@ -5775,8 +6826,11 @@
       <c r="D347" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>135</v>
       </c>
@@ -5789,8 +6843,11 @@
       <c r="D348" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>58</v>
       </c>
@@ -5803,8 +6860,11 @@
       <c r="D349" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>97</v>
       </c>
@@ -5817,8 +6877,11 @@
       <c r="D350" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>60</v>
       </c>
@@ -5831,8 +6894,11 @@
       <c r="D351" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>150</v>
       </c>
@@ -5845,8 +6911,11 @@
       <c r="D352" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>80</v>
       </c>
@@ -5859,8 +6928,11 @@
       <c r="D353" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>20</v>
       </c>
@@ -5873,8 +6945,12 @@
       <c r="D354" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E354" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3A092-F112-4860-8420-45BA6127E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01686673-E377-4FED-8343-249B6E0CF107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14595" windowHeight="15585" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="10815" yWindow="1440" windowWidth="16185" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="161">
   <si>
     <t>Wizards</t>
   </si>
@@ -916,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6949,6 +6949,57 @@
         <v>160</v>
       </c>
     </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01686673-E377-4FED-8343-249B6E0CF107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829AEE59-084A-46A6-AB26-4D83E8CB79A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10815" yWindow="1440" windowWidth="16185" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="161">
   <si>
     <t>Wizards</t>
   </si>
@@ -916,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358"/>
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7000,6 +7000,23 @@
         <v>160</v>
       </c>
     </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829AEE59-084A-46A6-AB26-4D83E8CB79A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96212E7-FCC0-4E13-BFFE-1317C69EA155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="1440" windowWidth="16185" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="5970" yWindow="0" windowWidth="16185" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="162">
   <si>
     <t>Wizards</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>DreamHack Winter Major 2026</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +591,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,9 +943,10 @@
     <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -947,25 +962,31 @@
       <c r="E1" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,25 +1002,31 @@
       <c r="E3" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1015,25 +1042,31 @@
       <c r="E5" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1049,25 +1082,31 @@
       <c r="E7" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1083,8 +1122,11 @@
       <c r="E9" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1100,8 +1142,11 @@
       <c r="E10" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1117,8 +1162,11 @@
       <c r="E11" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1134,8 +1182,11 @@
       <c r="E12" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1151,8 +1202,11 @@
       <c r="E13" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1168,8 +1222,11 @@
       <c r="E14" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1185,8 +1242,11 @@
       <c r="E15" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1202,8 +1262,11 @@
       <c r="E16" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1219,8 +1282,11 @@
       <c r="E17" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1236,8 +1302,11 @@
       <c r="E18" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1253,8 +1322,11 @@
       <c r="E19" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,8 +1342,11 @@
       <c r="E20" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1287,8 +1362,11 @@
       <c r="E21" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1304,8 +1382,11 @@
       <c r="E22" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -1321,8 +1402,11 @@
       <c r="E23" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1338,8 +1422,11 @@
       <c r="E24" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
@@ -1355,8 +1442,11 @@
       <c r="E25" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1372,8 +1462,11 @@
       <c r="E26" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -1389,8 +1482,11 @@
       <c r="E27" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1406,8 +1502,11 @@
       <c r="E28" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1423,8 +1522,11 @@
       <c r="E29" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -1440,8 +1542,11 @@
       <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1457,8 +1562,11 @@
       <c r="E31" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -1474,8 +1582,11 @@
       <c r="E32" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -1491,8 +1602,11 @@
       <c r="E33" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -1508,8 +1622,11 @@
       <c r="E34" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -1525,8 +1642,11 @@
       <c r="E35" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -1542,8 +1662,11 @@
       <c r="E36" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
@@ -1559,8 +1682,11 @@
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -1576,8 +1702,11 @@
       <c r="E38" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -1593,8 +1722,11 @@
       <c r="E39" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -1610,8 +1742,11 @@
       <c r="E40" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -1627,8 +1762,11 @@
       <c r="E41" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -1644,8 +1782,11 @@
       <c r="E42" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -1661,8 +1802,11 @@
       <c r="E43" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
@@ -1678,8 +1822,11 @@
       <c r="E44" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1695,8 +1842,11 @@
       <c r="E45" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -1712,8 +1862,11 @@
       <c r="E46" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1729,8 +1882,11 @@
       <c r="E47" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -1746,8 +1902,11 @@
       <c r="E48" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -1763,8 +1922,11 @@
       <c r="E49" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -1780,8 +1942,11 @@
       <c r="E50" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -1797,8 +1962,11 @@
       <c r="E51" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -1814,8 +1982,11 @@
       <c r="E52" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -1831,8 +2002,11 @@
       <c r="E53" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>119</v>
       </c>
@@ -1848,8 +2022,11 @@
       <c r="E54" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -1865,8 +2042,11 @@
       <c r="E55" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -1882,8 +2062,11 @@
       <c r="E56" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -1899,8 +2082,11 @@
       <c r="E57" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -1916,8 +2102,11 @@
       <c r="E58" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -1933,8 +2122,11 @@
       <c r="E59" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -1950,8 +2142,11 @@
       <c r="E60" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -1967,8 +2162,11 @@
       <c r="E61" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -1984,8 +2182,11 @@
       <c r="E62" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,8 +2202,11 @@
       <c r="E63" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,8 +2222,11 @@
       <c r="E64" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -2035,8 +2242,11 @@
       <c r="E65" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,8 +2262,11 @@
       <c r="E66" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2069,8 +2282,11 @@
       <c r="E67" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -2086,8 +2302,11 @@
       <c r="E68" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -2103,8 +2322,11 @@
       <c r="E69" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -2120,8 +2342,11 @@
       <c r="E70" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,8 +2362,11 @@
       <c r="E71" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2154,8 +2382,11 @@
       <c r="E72" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,8 +2402,11 @@
       <c r="E73" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -2188,8 +2422,11 @@
       <c r="E74" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -2205,8 +2442,11 @@
       <c r="E75" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -2222,8 +2462,11 @@
       <c r="E76" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
@@ -2239,8 +2482,11 @@
       <c r="E77" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2256,8 +2502,11 @@
       <c r="E78" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2522,11 @@
       <c r="E79" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -2290,8 +2542,11 @@
       <c r="E80" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -2307,8 +2562,11 @@
       <c r="E81" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
@@ -2324,8 +2582,11 @@
       <c r="E82" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -2341,8 +2602,11 @@
       <c r="E83" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>47</v>
       </c>
@@ -2358,8 +2622,11 @@
       <c r="E84" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -2375,8 +2642,11 @@
       <c r="E85" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
@@ -2392,8 +2662,11 @@
       <c r="E86" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>15</v>
       </c>
@@ -2409,8 +2682,11 @@
       <c r="E87" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
@@ -2426,8 +2702,11 @@
       <c r="E88" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -2443,8 +2722,11 @@
       <c r="E89" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -2460,8 +2742,11 @@
       <c r="E90" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -2477,8 +2762,11 @@
       <c r="E91" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -2494,8 +2782,11 @@
       <c r="E92" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -2511,8 +2802,11 @@
       <c r="E93" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,8 +2822,11 @@
       <c r="E94" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>36</v>
       </c>
@@ -2545,8 +2842,11 @@
       <c r="E95" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
@@ -2562,8 +2862,11 @@
       <c r="E96" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -2579,8 +2882,11 @@
       <c r="E97" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>15</v>
       </c>
@@ -2596,8 +2902,11 @@
       <c r="E98" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -2613,8 +2922,11 @@
       <c r="E99" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -2630,8 +2942,11 @@
       <c r="E100" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
@@ -2647,8 +2962,11 @@
       <c r="E101" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -2664,8 +2982,11 @@
       <c r="E102" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>128</v>
       </c>
@@ -2681,8 +3002,11 @@
       <c r="E103" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
@@ -2698,8 +3022,11 @@
       <c r="E104" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>34</v>
       </c>
@@ -2715,8 +3042,11 @@
       <c r="E105" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>34</v>
       </c>
@@ -2732,8 +3062,11 @@
       <c r="E106" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>36</v>
       </c>
@@ -2749,8 +3082,11 @@
       <c r="E107" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>36</v>
       </c>
@@ -2766,8 +3102,11 @@
       <c r="E108" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>15</v>
       </c>
@@ -2783,8 +3122,11 @@
       <c r="E109" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>15</v>
       </c>
@@ -2800,8 +3142,11 @@
       <c r="E110" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>15</v>
       </c>
@@ -2817,8 +3162,11 @@
       <c r="E111" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>29</v>
       </c>
@@ -2834,8 +3182,11 @@
       <c r="E112" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -2851,8 +3202,11 @@
       <c r="E113" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
@@ -2868,8 +3222,11 @@
       <c r="E114" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -2885,8 +3242,11 @@
       <c r="E115" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
@@ -2902,8 +3262,11 @@
       <c r="E116" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -2919,8 +3282,11 @@
       <c r="E117" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -2936,8 +3302,11 @@
       <c r="E118" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>52</v>
       </c>
@@ -2953,8 +3322,11 @@
       <c r="E119" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>52</v>
       </c>
@@ -2970,8 +3342,11 @@
       <c r="E120" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>64</v>
       </c>
@@ -2987,8 +3362,11 @@
       <c r="E121" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>64</v>
       </c>
@@ -3004,8 +3382,11 @@
       <c r="E122" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>75</v>
       </c>
@@ -3021,8 +3402,11 @@
       <c r="E123" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>75</v>
       </c>
@@ -3038,8 +3422,11 @@
       <c r="E124" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -3055,8 +3442,11 @@
       <c r="E125" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -3072,8 +3462,11 @@
       <c r="E126" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -3089,8 +3482,11 @@
       <c r="E127" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +3502,11 @@
       <c r="E128" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
@@ -3123,8 +3522,11 @@
       <c r="E129" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -3140,8 +3542,11 @@
       <c r="E130" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -3157,8 +3562,11 @@
       <c r="E131" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>127</v>
       </c>
@@ -3174,8 +3582,11 @@
       <c r="E132" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -3191,8 +3602,11 @@
       <c r="E133" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>75</v>
       </c>
@@ -3208,8 +3622,11 @@
       <c r="E134" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>75</v>
       </c>
@@ -3225,8 +3642,11 @@
       <c r="E135" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,8 +3662,11 @@
       <c r="E136" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>75</v>
       </c>
@@ -3259,8 +3682,11 @@
       <c r="E137" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -3276,8 +3702,11 @@
       <c r="E138" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -3293,8 +3722,11 @@
       <c r="E139" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>60</v>
       </c>
@@ -3310,8 +3742,11 @@
       <c r="E140" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>60</v>
       </c>
@@ -3327,8 +3762,11 @@
       <c r="E141" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -3344,8 +3782,11 @@
       <c r="E142" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -3361,8 +3802,11 @@
       <c r="E143" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>82</v>
       </c>
@@ -3378,8 +3822,11 @@
       <c r="E144" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3842,11 @@
       <c r="E145" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>82</v>
       </c>
@@ -3412,8 +3862,11 @@
       <c r="E146" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>77</v>
       </c>
@@ -3429,8 +3882,11 @@
       <c r="E147" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>77</v>
       </c>
@@ -3446,8 +3902,11 @@
       <c r="E148" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="3">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>57</v>
       </c>
@@ -3463,8 +3922,11 @@
       <c r="E149" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>57</v>
       </c>
@@ -3480,8 +3942,11 @@
       <c r="E150" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>57</v>
       </c>
@@ -3497,8 +3962,11 @@
       <c r="E151" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>67</v>
       </c>
@@ -3514,8 +3982,11 @@
       <c r="E152" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>67</v>
       </c>
@@ -3531,8 +4002,11 @@
       <c r="E153" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>67</v>
       </c>
@@ -3548,8 +4022,11 @@
       <c r="E154" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>77</v>
       </c>
@@ -3565,8 +4042,11 @@
       <c r="E155" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>77</v>
       </c>
@@ -3582,8 +4062,11 @@
       <c r="E156" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>74</v>
       </c>
@@ -3599,8 +4082,11 @@
       <c r="E157" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>74</v>
       </c>
@@ -3616,8 +4102,11 @@
       <c r="E158" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>74</v>
       </c>
@@ -3633,8 +4122,11 @@
       <c r="E159" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>126</v>
       </c>
@@ -3650,8 +4142,11 @@
       <c r="E160" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>126</v>
       </c>
@@ -3667,8 +4162,11 @@
       <c r="E161" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="3">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>82</v>
       </c>
@@ -3684,8 +4182,11 @@
       <c r="E162" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,8 +4202,11 @@
       <c r="E163" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>82</v>
       </c>
@@ -3718,8 +4222,11 @@
       <c r="E164" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>57</v>
       </c>
@@ -3735,8 +4242,11 @@
       <c r="E165" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>57</v>
       </c>
@@ -3752,8 +4262,11 @@
       <c r="E166" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
@@ -3769,8 +4282,11 @@
       <c r="E167" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
@@ -3786,8 +4302,11 @@
       <c r="E168" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>82</v>
       </c>
@@ -3803,8 +4322,11 @@
       <c r="E169" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>82</v>
       </c>
@@ -3820,8 +4342,11 @@
       <c r="E170" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>82</v>
       </c>
@@ -3837,8 +4362,11 @@
       <c r="E171" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>138</v>
       </c>
@@ -3854,8 +4382,11 @@
       <c r="E172" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>138</v>
       </c>
@@ -3871,8 +4402,11 @@
       <c r="E173" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>138</v>
       </c>
@@ -3888,8 +4422,11 @@
       <c r="E174" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>124</v>
       </c>
@@ -3905,8 +4442,11 @@
       <c r="E175" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>124</v>
       </c>
@@ -3922,8 +4462,11 @@
       <c r="E176" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>111</v>
       </c>
@@ -3939,8 +4482,11 @@
       <c r="E177" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>111</v>
       </c>
@@ -3956,8 +4502,11 @@
       <c r="E178" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>111</v>
       </c>
@@ -3973,8 +4522,11 @@
       <c r="E179" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
@@ -3990,8 +4542,11 @@
       <c r="E180" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>105</v>
       </c>
@@ -4007,8 +4562,11 @@
       <c r="E181" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>124</v>
       </c>
@@ -4024,8 +4582,11 @@
       <c r="E182" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>124</v>
       </c>
@@ -4041,8 +4602,11 @@
       <c r="E183" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>124</v>
       </c>
@@ -4058,8 +4622,11 @@
       <c r="E184" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>111</v>
       </c>
@@ -4075,8 +4642,11 @@
       <c r="E185" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>111</v>
       </c>
@@ -4092,8 +4662,11 @@
       <c r="E186" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>138</v>
       </c>
@@ -4109,8 +4682,11 @@
       <c r="E187" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>138</v>
       </c>
@@ -4126,8 +4702,11 @@
       <c r="E188" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>138</v>
       </c>
@@ -4143,8 +4722,11 @@
       <c r="E189" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>130</v>
       </c>
@@ -4160,8 +4742,11 @@
       <c r="E190" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>130</v>
       </c>
@@ -4177,8 +4762,11 @@
       <c r="E191" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="3">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>138</v>
       </c>
@@ -4194,8 +4782,11 @@
       <c r="E192" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>138</v>
       </c>
@@ -4211,8 +4802,11 @@
       <c r="E193" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>124</v>
       </c>
@@ -4228,8 +4822,11 @@
       <c r="E194" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>124</v>
       </c>
@@ -4245,8 +4842,11 @@
       <c r="E195" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>124</v>
       </c>
@@ -4262,8 +4862,11 @@
       <c r="E196" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>107</v>
       </c>
@@ -4279,8 +4882,11 @@
       <c r="E197" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>107</v>
       </c>
@@ -4296,8 +4902,11 @@
       <c r="E198" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>107</v>
       </c>
@@ -4313,8 +4922,11 @@
       <c r="E199" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>138</v>
       </c>
@@ -4330,8 +4942,11 @@
       <c r="E200" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>138</v>
       </c>
@@ -4347,8 +4962,11 @@
       <c r="E201" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>138</v>
       </c>
@@ -4364,8 +4982,11 @@
       <c r="E202" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="3">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>91</v>
       </c>
@@ -4381,8 +5002,11 @@
       <c r="E203" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>91</v>
       </c>
@@ -4398,8 +5022,11 @@
       <c r="E204" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>91</v>
       </c>
@@ -4415,8 +5042,11 @@
       <c r="E205" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>135</v>
       </c>
@@ -4432,8 +5062,11 @@
       <c r="E206" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>135</v>
       </c>
@@ -4449,8 +5082,11 @@
       <c r="E207" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>133</v>
       </c>
@@ -4466,8 +5102,11 @@
       <c r="E208" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>133</v>
       </c>
@@ -4483,8 +5122,11 @@
       <c r="E209" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>133</v>
       </c>
@@ -4500,8 +5142,11 @@
       <c r="E210" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>120</v>
       </c>
@@ -4517,8 +5162,11 @@
       <c r="E211" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>120</v>
       </c>
@@ -4534,8 +5182,11 @@
       <c r="E212" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>85</v>
       </c>
@@ -4551,8 +5202,11 @@
       <c r="E213" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>85</v>
       </c>
@@ -4568,8 +5222,11 @@
       <c r="E214" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>119</v>
       </c>
@@ -4585,8 +5242,11 @@
       <c r="E215" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>119</v>
       </c>
@@ -4602,8 +5262,11 @@
       <c r="E216" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="3">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>91</v>
       </c>
@@ -4619,8 +5282,11 @@
       <c r="E217" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>91</v>
       </c>
@@ -4636,8 +5302,11 @@
       <c r="E218" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>91</v>
       </c>
@@ -4653,8 +5322,11 @@
       <c r="E219" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>133</v>
       </c>
@@ -4670,8 +5342,11 @@
       <c r="E220" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>133</v>
       </c>
@@ -4687,8 +5362,11 @@
       <c r="E221" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>133</v>
       </c>
@@ -4704,8 +5382,11 @@
       <c r="E222" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>133</v>
       </c>
@@ -4721,8 +5402,11 @@
       <c r="E223" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>133</v>
       </c>
@@ -4738,8 +5422,11 @@
       <c r="E224" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>91</v>
       </c>
@@ -4755,8 +5442,11 @@
       <c r="E225" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>91</v>
       </c>
@@ -4772,8 +5462,11 @@
       <c r="E226" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="3">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>135</v>
       </c>
@@ -4789,8 +5482,11 @@
       <c r="E227" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>135</v>
       </c>
@@ -4806,8 +5502,11 @@
       <c r="E228" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>85</v>
       </c>
@@ -4823,8 +5522,11 @@
       <c r="E229" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>85</v>
       </c>
@@ -4840,8 +5542,11 @@
       <c r="E230" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>117</v>
       </c>
@@ -4857,8 +5562,11 @@
       <c r="E231" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>117</v>
       </c>
@@ -4874,8 +5582,11 @@
       <c r="E232" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>136</v>
       </c>
@@ -4891,8 +5602,11 @@
       <c r="E233" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>136</v>
       </c>
@@ -4908,8 +5622,11 @@
       <c r="E234" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>136</v>
       </c>
@@ -4925,8 +5642,11 @@
       <c r="E235" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>116</v>
       </c>
@@ -4942,8 +5662,11 @@
       <c r="E236" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>116</v>
       </c>
@@ -4959,8 +5682,11 @@
       <c r="E237" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>98</v>
       </c>
@@ -4976,8 +5702,11 @@
       <c r="E238" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>98</v>
       </c>
@@ -4993,8 +5722,11 @@
       <c r="E239" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>98</v>
       </c>
@@ -5010,8 +5742,11 @@
       <c r="E240" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="3">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>117</v>
       </c>
@@ -5027,8 +5762,11 @@
       <c r="E241" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>117</v>
       </c>
@@ -5044,8 +5782,11 @@
       <c r="E242" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,8 +5802,11 @@
       <c r="E243" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>87</v>
       </c>
@@ -5078,8 +5822,11 @@
       <c r="E244" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>87</v>
       </c>
@@ -5095,8 +5842,11 @@
       <c r="E245" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>97</v>
       </c>
@@ -5112,8 +5862,11 @@
       <c r="E246" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>97</v>
       </c>
@@ -5129,8 +5882,11 @@
       <c r="E247" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>97</v>
       </c>
@@ -5146,8 +5902,11 @@
       <c r="E248" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>116</v>
       </c>
@@ -5163,8 +5922,11 @@
       <c r="E249" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>116</v>
       </c>
@@ -5180,8 +5942,11 @@
       <c r="E250" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>116</v>
       </c>
@@ -5197,8 +5962,11 @@
       <c r="E251" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>117</v>
       </c>
@@ -5214,8 +5982,11 @@
       <c r="E252" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>117</v>
       </c>
@@ -5231,8 +6002,11 @@
       <c r="E253" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>117</v>
       </c>
@@ -5248,8 +6022,11 @@
       <c r="E254" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>88</v>
       </c>
@@ -5265,8 +6042,11 @@
       <c r="E255" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>88</v>
       </c>
@@ -5282,8 +6062,11 @@
       <c r="E256" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>88</v>
       </c>
@@ -5299,8 +6082,11 @@
       <c r="E257" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>97</v>
       </c>
@@ -5316,8 +6102,11 @@
       <c r="E258" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>97</v>
       </c>
@@ -5333,8 +6122,11 @@
       <c r="E259" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>116</v>
       </c>
@@ -5350,8 +6142,11 @@
       <c r="E260" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>116</v>
       </c>
@@ -5367,8 +6162,11 @@
       <c r="E261" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>123</v>
       </c>
@@ -5384,8 +6182,11 @@
       <c r="E262" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>123</v>
       </c>
@@ -5401,8 +6202,11 @@
       <c r="E263" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>72</v>
       </c>
@@ -5418,8 +6222,11 @@
       <c r="E264" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>72</v>
       </c>
@@ -5435,8 +6242,11 @@
       <c r="E265" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>78</v>
       </c>
@@ -5452,8 +6262,11 @@
       <c r="E266" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>78</v>
       </c>
@@ -5469,8 +6282,11 @@
       <c r="E267" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>78</v>
       </c>
@@ -5486,8 +6302,11 @@
       <c r="E268" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>155</v>
       </c>
@@ -5503,8 +6322,11 @@
       <c r="E269" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>155</v>
       </c>
@@ -5520,8 +6342,11 @@
       <c r="E270" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="3">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,8 +6362,11 @@
       <c r="E271" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>80</v>
       </c>
@@ -5554,8 +6382,11 @@
       <c r="E272" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>80</v>
       </c>
@@ -5571,8 +6402,11 @@
       <c r="E273" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>78</v>
       </c>
@@ -5588,8 +6422,11 @@
       <c r="E274" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>78</v>
       </c>
@@ -5605,8 +6442,11 @@
       <c r="E275" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>78</v>
       </c>
@@ -5622,8 +6462,11 @@
       <c r="E276" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>80</v>
       </c>
@@ -5639,8 +6482,11 @@
       <c r="E277" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>80</v>
       </c>
@@ -5656,8 +6502,11 @@
       <c r="E278" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="3">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>57</v>
       </c>
@@ -5673,8 +6522,11 @@
       <c r="E279" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>57</v>
       </c>
@@ -5690,8 +6542,11 @@
       <c r="E280" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>52</v>
       </c>
@@ -5707,8 +6562,11 @@
       <c r="E281" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>52</v>
       </c>
@@ -5724,8 +6582,11 @@
       <c r="E282" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>138</v>
       </c>
@@ -5741,8 +6602,11 @@
       <c r="E283" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>138</v>
       </c>
@@ -5758,8 +6622,11 @@
       <c r="E284" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>138</v>
       </c>
@@ -5775,8 +6642,11 @@
       <c r="E285" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>116</v>
       </c>
@@ -5792,8 +6662,11 @@
       <c r="E286" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>116</v>
       </c>
@@ -5809,8 +6682,11 @@
       <c r="E287" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>116</v>
       </c>
@@ -5826,8 +6702,11 @@
       <c r="E288" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="3">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>57</v>
       </c>
@@ -5843,8 +6722,11 @@
       <c r="E289" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="3">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
@@ -5860,8 +6742,11 @@
       <c r="E290" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="3">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>138</v>
       </c>
@@ -5877,8 +6762,11 @@
       <c r="E291" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="3">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>138</v>
       </c>
@@ -5894,8 +6782,11 @@
       <c r="E292" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="3">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>138</v>
       </c>
@@ -5911,8 +6802,11 @@
       <c r="E293" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="3">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>26</v>
       </c>
@@ -5928,8 +6822,11 @@
       <c r="E294" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>82</v>
       </c>
@@ -5945,8 +6842,11 @@
       <c r="E295" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>85</v>
       </c>
@@ -5962,8 +6862,11 @@
       <c r="E296" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>15</v>
       </c>
@@ -5979,8 +6882,11 @@
       <c r="E297" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>88</v>
       </c>
@@ -5996,8 +6902,11 @@
       <c r="E298" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>107</v>
       </c>
@@ -6013,8 +6922,11 @@
       <c r="E299" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>79</v>
       </c>
@@ -6030,8 +6942,11 @@
       <c r="E300" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -6047,8 +6962,11 @@
       <c r="E301" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="3">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>124</v>
       </c>
@@ -6064,8 +6982,11 @@
       <c r="E302" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>82</v>
       </c>
@@ -6081,8 +7002,11 @@
       <c r="E303" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>15</v>
       </c>
@@ -6098,8 +7022,11 @@
       <c r="E304" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>26</v>
       </c>
@@ -6115,8 +7042,11 @@
       <c r="E305" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>67</v>
       </c>
@@ -6132,8 +7062,11 @@
       <c r="E306" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -6149,8 +7082,11 @@
       <c r="E307" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>30</v>
       </c>
@@ -6166,8 +7102,11 @@
       <c r="E308" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>88</v>
       </c>
@@ -6183,8 +7122,11 @@
       <c r="E309" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="3">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>15</v>
       </c>
@@ -6200,8 +7142,11 @@
       <c r="E310" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>15</v>
       </c>
@@ -6217,8 +7162,11 @@
       <c r="E311" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>85</v>
       </c>
@@ -6234,8 +7182,11 @@
       <c r="E312" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>85</v>
       </c>
@@ -6251,8 +7202,11 @@
       <c r="E313" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>85</v>
       </c>
@@ -6268,8 +7222,11 @@
       <c r="E314" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>79</v>
       </c>
@@ -6285,8 +7242,11 @@
       <c r="E315" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>67</v>
       </c>
@@ -6302,8 +7262,11 @@
       <c r="E316" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>124</v>
       </c>
@@ -6319,8 +7282,11 @@
       <c r="E317" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>82</v>
       </c>
@@ -6336,8 +7302,11 @@
       <c r="E318" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>138</v>
       </c>
@@ -6353,8 +7322,11 @@
       <c r="E319" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="3">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>138</v>
       </c>
@@ -6370,8 +7342,11 @@
       <c r="E320" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="3">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>69</v>
       </c>
@@ -6387,8 +7362,11 @@
       <c r="E321" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="3">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>69</v>
       </c>
@@ -6404,8 +7382,11 @@
       <c r="E322" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="3">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>69</v>
       </c>
@@ -6421,8 +7402,11 @@
       <c r="E323" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="3">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>124</v>
       </c>
@@ -6438,8 +7422,11 @@
       <c r="E324" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>124</v>
       </c>
@@ -6455,8 +7442,11 @@
       <c r="E325" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>124</v>
       </c>
@@ -6472,8 +7462,11 @@
       <c r="E326" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>26</v>
       </c>
@@ -6489,8 +7482,11 @@
       <c r="E327" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>26</v>
       </c>
@@ -6506,8 +7502,11 @@
       <c r="E328" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>30</v>
       </c>
@@ -6523,8 +7522,11 @@
       <c r="E329" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>30</v>
       </c>
@@ -6540,8 +7542,11 @@
       <c r="E330" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="3">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>79</v>
       </c>
@@ -6557,8 +7562,11 @@
       <c r="E331" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>79</v>
       </c>
@@ -6574,8 +7582,11 @@
       <c r="E332" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>79</v>
       </c>
@@ -6591,8 +7602,11 @@
       <c r="E333" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>100</v>
       </c>
@@ -6608,8 +7622,11 @@
       <c r="E334" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>100</v>
       </c>
@@ -6625,8 +7642,11 @@
       <c r="E335" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>107</v>
       </c>
@@ -6642,8 +7662,11 @@
       <c r="E336" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>107</v>
       </c>
@@ -6659,8 +7682,11 @@
       <c r="E337" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>107</v>
       </c>
@@ -6676,8 +7702,11 @@
       <c r="E338" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="3">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>26</v>
       </c>
@@ -6693,8 +7722,11 @@
       <c r="E339" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>26</v>
       </c>
@@ -6710,8 +7742,11 @@
       <c r="E340" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>26</v>
       </c>
@@ -6727,8 +7762,11 @@
       <c r="E341" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>67</v>
       </c>
@@ -6744,8 +7782,11 @@
       <c r="E342" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>67</v>
       </c>
@@ -6761,8 +7802,11 @@
       <c r="E343" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>30</v>
       </c>
@@ -6778,8 +7822,11 @@
       <c r="E344" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>30</v>
       </c>
@@ -6795,8 +7842,11 @@
       <c r="E345" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>30</v>
       </c>
@@ -6812,8 +7862,11 @@
       <c r="E346" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="3">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>29</v>
       </c>
@@ -6829,8 +7882,11 @@
       <c r="E347" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>135</v>
       </c>
@@ -6846,8 +7902,11 @@
       <c r="E348" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>58</v>
       </c>
@@ -6863,8 +7922,11 @@
       <c r="E349" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>97</v>
       </c>
@@ -6880,8 +7942,11 @@
       <c r="E350" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>60</v>
       </c>
@@ -6897,8 +7962,11 @@
       <c r="E351" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>150</v>
       </c>
@@ -6914,8 +7982,11 @@
       <c r="E352" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>80</v>
       </c>
@@ -6931,8 +8002,11 @@
       <c r="E353" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>20</v>
       </c>
@@ -6948,8 +8022,11 @@
       <c r="E354" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="3">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>29</v>
       </c>
@@ -6965,8 +8042,11 @@
       <c r="E355" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="3">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>60</v>
       </c>
@@ -6982,8 +8062,11 @@
       <c r="E356" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="3">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>135</v>
       </c>
@@ -6999,8 +8082,11 @@
       <c r="E357" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="3">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>20</v>
       </c>
@@ -7015,6 +8101,9 @@
       </c>
       <c r="E358" s="1" t="s">
         <v>160</v>
+      </c>
+      <c r="F358" s="3">
+        <v>46070</v>
       </c>
     </row>
   </sheetData>

--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96212E7-FCC0-4E13-BFFE-1317C69EA155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB03836-F2C7-4521-A0A0-CA4362F767D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="0" windowWidth="16185" windowHeight="14040" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
   <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J350" sqref="J349:J350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,22 +1127,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="5">
         <v>46024</v>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="5">
         <v>46024</v>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="5">
         <v>46024</v>
       </c>
     </row>
@@ -1247,22 +1247,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="5">
         <v>46024</v>
       </c>
     </row>
@@ -1287,22 +1287,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="5">
         <v>46025</v>
       </c>
     </row>
@@ -1327,22 +1327,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="5">
         <v>46025</v>
       </c>
     </row>
@@ -1367,22 +1367,22 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="5">
         <v>46025</v>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="5">
         <v>46025</v>
       </c>
     </row>
@@ -1447,22 +1447,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="5">
         <v>46026</v>
       </c>
     </row>
@@ -1487,22 +1487,22 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="5">
         <v>46026</v>
       </c>
     </row>
@@ -1527,22 +1527,22 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="5">
         <v>46026</v>
       </c>
     </row>
@@ -1567,22 +1567,22 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="5">
         <v>46026</v>
       </c>
     </row>
@@ -1607,22 +1607,22 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="5">
         <v>46027</v>
       </c>
     </row>
@@ -1647,22 +1647,22 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="5">
         <v>46027</v>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="5">
         <v>46027</v>
       </c>
     </row>
@@ -1727,22 +1727,22 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="5">
         <v>46027</v>
       </c>
     </row>
@@ -1767,22 +1767,22 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="5">
         <v>46028</v>
       </c>
     </row>
@@ -1807,22 +1807,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="5">
         <v>46028</v>
       </c>
     </row>
@@ -1847,22 +1847,22 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="5">
         <v>46028</v>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="5">
         <v>46028</v>
       </c>
     </row>
@@ -1927,22 +1927,22 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="5">
         <v>46029</v>
       </c>
     </row>
@@ -1967,22 +1967,22 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="5">
         <v>46029</v>
       </c>
     </row>
@@ -2007,22 +2007,22 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="5">
         <v>46029</v>
       </c>
     </row>
@@ -2047,22 +2047,22 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="5">
         <v>46029</v>
       </c>
     </row>
@@ -2087,42 +2087,42 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="5">
         <v>46030</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="5">
         <v>46030</v>
       </c>
     </row>
@@ -2187,42 +2187,42 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="5">
         <v>46030</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="5">
         <v>46030</v>
       </c>
     </row>
@@ -2287,62 +2287,62 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="5">
         <v>46031</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="5">
         <v>46031</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="5">
         <v>46031</v>
       </c>
     </row>
@@ -2407,42 +2407,42 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="5">
         <v>46031</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="5">
         <v>46031</v>
       </c>
     </row>
@@ -2487,42 +2487,42 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="5">
         <v>46032</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" s="5">
         <v>46032</v>
       </c>
     </row>
@@ -2567,42 +2567,42 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" s="5">
         <v>46032</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="5">
         <v>46032</v>
       </c>
     </row>
@@ -2647,62 +2647,62 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" s="5">
         <v>46033</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="5">
         <v>46033</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" s="5">
         <v>46033</v>
       </c>
     </row>
@@ -2767,42 +2767,42 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" s="5">
         <v>46033</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="E93" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="5">
         <v>46033</v>
       </c>
     </row>
@@ -2867,62 +2867,62 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E97" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="5">
         <v>46033</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F98" s="5">
         <v>46033</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="5">
         <v>46033</v>
       </c>
     </row>
@@ -2967,42 +2967,42 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="5">
         <v>46034</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103" s="5">
         <v>46034</v>
       </c>
     </row>
@@ -3067,42 +3067,42 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="5">
         <v>46034</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E108" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="5">
         <v>46034</v>
       </c>
     </row>
@@ -3167,42 +3167,42 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F112" s="5">
         <v>46034</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" s="5">
         <v>46034</v>
       </c>
     </row>
@@ -3247,62 +3247,62 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="E116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="5">
         <v>46035</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="E117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" s="5">
         <v>46035</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118" s="3">
+      <c r="E118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" s="5">
         <v>46035</v>
       </c>
     </row>
@@ -3347,42 +3347,42 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="C121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121" s="3">
+      <c r="E121" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="5">
         <v>46035</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122" s="3">
+      <c r="E122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" s="5">
         <v>46035</v>
       </c>
     </row>
@@ -3427,42 +3427,42 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="C125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="E125" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" s="5">
         <v>46035</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="E126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="5">
         <v>46035</v>
       </c>
     </row>
@@ -3527,42 +3527,42 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F130" s="3">
+      <c r="E130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" s="5">
         <v>46036</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="C131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="E131" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="5">
         <v>46036</v>
       </c>
     </row>
@@ -3607,82 +3607,82 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134" s="3">
+      <c r="E134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F134" s="5">
         <v>46036</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F135" s="3">
+      <c r="E135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="5">
         <v>46036</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F136" s="3">
+      <c r="E136" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F136" s="5">
         <v>46036</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="E137" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F137" s="5">
         <v>46036</v>
       </c>
     </row>
@@ -3727,42 +3727,42 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="E140" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F140" s="5">
         <v>46037</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="3">
+      <c r="E141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" s="5">
         <v>46037</v>
       </c>
     </row>
@@ -3807,62 +3807,62 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F144" s="3">
+      <c r="E144" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F144" s="5">
         <v>46037</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F145" s="3">
+      <c r="E145" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F145" s="5">
         <v>46037</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F146" s="3">
+      <c r="E146" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F146" s="5">
         <v>46037</v>
       </c>
     </row>
@@ -3907,62 +3907,62 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="C149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="E149" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F149" s="5">
         <v>46038</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F150" s="3">
+      <c r="E150" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F150" s="5">
         <v>46038</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F151" s="3">
+      <c r="E151" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F151" s="5">
         <v>46038</v>
       </c>
     </row>
@@ -4027,47 +4027,47 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F155" s="3">
+      <c r="E155" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F155" s="5">
         <v>46038</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F156" s="3">
+      <c r="E156" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F156" s="5">
         <v>46038</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -4127,42 +4127,42 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F160" s="3">
+      <c r="E160" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F160" s="5">
         <v>46038</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F161" s="3">
+      <c r="E161" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="5">
         <v>46038</v>
       </c>
     </row>
@@ -4227,42 +4227,42 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F165" s="3">
+      <c r="E165" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F165" s="5">
         <v>46039</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F166" s="3">
+      <c r="E166" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F166" s="5">
         <v>46039</v>
       </c>
     </row>
@@ -4307,62 +4307,62 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F169" s="3">
+      <c r="E169" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F169" s="5">
         <v>46040</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="C170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F170" s="3">
+      <c r="E170" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F170" s="5">
         <v>46040</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F171" s="3">
+      <c r="E171" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F171" s="5">
         <v>46040</v>
       </c>
     </row>
@@ -4427,42 +4427,42 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F175" s="3">
+      <c r="E175" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F175" s="5">
         <v>46041</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F176" s="3">
+      <c r="E176" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F176" s="5">
         <v>46041</v>
       </c>
     </row>
@@ -4527,42 +4527,42 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="C180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F180" s="3">
+      <c r="E180" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F180" s="5">
         <v>46041</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F181" s="3">
+      <c r="E181" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F181" s="5">
         <v>46041</v>
       </c>
     </row>
@@ -4627,42 +4627,42 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F185" s="3">
+      <c r="E185" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F185" s="5">
         <v>46042</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F186" s="3">
+      <c r="E186" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F186" s="5">
         <v>46042</v>
       </c>
     </row>
@@ -4727,42 +4727,42 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="C190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F190" s="3">
+      <c r="E190" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F190" s="5">
         <v>46042</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F191" s="3">
+      <c r="E191" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F191" s="5">
         <v>46042</v>
       </c>
     </row>
@@ -4807,62 +4807,62 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F194" s="3">
+      <c r="E194" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F194" s="5">
         <v>46043</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F195" s="3">
+      <c r="E195" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F195" s="5">
         <v>46043</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F196" s="3">
+      <c r="E196" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F196" s="5">
         <v>46043</v>
       </c>
     </row>
@@ -4927,62 +4927,62 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F200" s="3">
+      <c r="E200" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F200" s="5">
         <v>46043</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F201" s="3">
+      <c r="E201" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F201" s="5">
         <v>46043</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F202" s="3">
+      <c r="E202" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F202" s="5">
         <v>46043</v>
       </c>
     </row>
@@ -5047,42 +5047,42 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F206" s="3">
+      <c r="E206" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F206" s="5">
         <v>46044</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F207" s="3">
+      <c r="E207" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F207" s="5">
         <v>46044</v>
       </c>
     </row>
@@ -5147,42 +5147,42 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F211" s="3">
+      <c r="E211" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F211" s="5">
         <v>46044</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F212" s="3">
+      <c r="E212" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F212" s="5">
         <v>46044</v>
       </c>
     </row>
@@ -5227,42 +5227,42 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F215" s="3">
+      <c r="E215" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F215" s="5">
         <v>46044</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F216" s="3">
+      <c r="E216" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F216" s="5">
         <v>46044</v>
       </c>
     </row>
@@ -5327,42 +5327,42 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F220" s="3">
+      <c r="E220" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F220" s="5">
         <v>46045</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F221" s="3">
+      <c r="E221" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F221" s="5">
         <v>46045</v>
       </c>
     </row>
@@ -5427,42 +5427,42 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F225" s="3">
+      <c r="E225" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F225" s="5">
         <v>46045</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F226" s="3">
+      <c r="E226" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F226" s="5">
         <v>46045</v>
       </c>
     </row>
@@ -5507,42 +5507,42 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="1" t="s">
+      <c r="C229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F229" s="3">
+      <c r="E229" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F229" s="5">
         <v>46046</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F230" s="3">
+      <c r="E230" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F230" s="5">
         <v>46046</v>
       </c>
     </row>
@@ -5587,62 +5587,62 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="1" t="s">
+      <c r="C233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F233" s="3">
+      <c r="E233" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F233" s="5">
         <v>46046</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F234" s="3">
+      <c r="E234" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F234" s="5">
         <v>46046</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F235" s="3">
+      <c r="E235" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F235" s="5">
         <v>46046</v>
       </c>
     </row>
@@ -5687,62 +5687,62 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F238" s="3">
+      <c r="E238" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F238" s="5">
         <v>46046</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F239" s="3">
+      <c r="E239" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F239" s="5">
         <v>46046</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="1" t="s">
+      <c r="C240" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F240" s="3">
+      <c r="E240" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F240" s="5">
         <v>46046</v>
       </c>
     </row>
@@ -5787,62 +5787,62 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F243" s="3">
+      <c r="E243" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F243" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F244" s="3">
+      <c r="E244" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F244" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="C245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F245" s="3">
+      <c r="E245" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F245" s="5">
         <v>46047</v>
       </c>
     </row>
@@ -5907,62 +5907,62 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F249" s="3">
+      <c r="E249" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F249" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F250" s="3">
+      <c r="E250" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F250" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="C251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F251" s="3">
+      <c r="E251" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F251" s="5">
         <v>46047</v>
       </c>
     </row>
@@ -6027,62 +6027,62 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="1" t="s">
+      <c r="C255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F255" s="3">
+      <c r="E255" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F255" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F256" s="3">
+      <c r="E256" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F256" s="5">
         <v>46047</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F257" s="3">
+      <c r="E257" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F257" s="5">
         <v>46047</v>
       </c>
     </row>
@@ -6127,42 +6127,42 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F260" s="3">
+      <c r="E260" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F260" s="5">
         <v>46048</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F261" s="3">
+      <c r="E261" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F261" s="5">
         <v>46048</v>
       </c>
     </row>
@@ -6207,42 +6207,42 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F264" s="3">
+      <c r="E264" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F264" s="5">
         <v>46049</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E265" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F265" s="3">
+      <c r="E265" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F265" s="5">
         <v>46049</v>
       </c>
     </row>
@@ -6307,42 +6307,42 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F269" s="3">
+      <c r="E269" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F269" s="5">
         <v>46049</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F270" s="3">
+      <c r="E270" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F270" s="5">
         <v>46049</v>
       </c>
     </row>
@@ -6407,62 +6407,62 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="1" t="s">
+      <c r="C274" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F274" s="3">
+      <c r="E274" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F274" s="5">
         <v>46050</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F275" s="3">
+      <c r="E275" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F275" s="5">
         <v>46050</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F276" s="3">
+      <c r="E276" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F276" s="5">
         <v>46050</v>
       </c>
     </row>
@@ -6507,42 +6507,42 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279" s="1" t="s">
+      <c r="C279" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F279" s="3">
+      <c r="E279" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F279" s="5">
         <v>46051</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F280" s="3">
+      <c r="E280" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F280" s="5">
         <v>46051</v>
       </c>
     </row>
@@ -6587,62 +6587,62 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D283" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F283" s="3">
+      <c r="E283" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F283" s="5">
         <v>46051</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F284" s="3">
+      <c r="E284" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F284" s="5">
         <v>46051</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="1" t="s">
+      <c r="C285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F285" s="3">
+      <c r="E285" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F285" s="5">
         <v>46051</v>
       </c>
     </row>
@@ -6707,42 +6707,42 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D289" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E289" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F289" s="3">
+      <c r="E289" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F289" s="5">
         <v>46052</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F290" s="3">
+      <c r="E290" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F290" s="5">
         <v>46052</v>
       </c>
     </row>
@@ -6807,22 +6807,22 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="1" t="s">
+      <c r="C294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E294" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F294" s="3">
+      <c r="E294" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F294" s="5">
         <v>46053</v>
       </c>
     </row>
@@ -6847,22 +6847,22 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="1" t="s">
+      <c r="C296" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F296" s="3">
+      <c r="E296" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F296" s="5">
         <v>46053</v>
       </c>
     </row>
@@ -6887,22 +6887,22 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F298" s="3">
+      <c r="E298" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F298" s="5">
         <v>46053</v>
       </c>
     </row>
@@ -6927,22 +6927,22 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="1" t="s">
+      <c r="C300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F300" s="3">
+      <c r="E300" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F300" s="5">
         <v>46053</v>
       </c>
     </row>
@@ -6967,22 +6967,22 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F302" s="3">
+      <c r="E302" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F302" s="5">
         <v>46054</v>
       </c>
     </row>
@@ -7007,22 +7007,22 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="1" t="s">
+      <c r="C304" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F304" s="3">
+      <c r="E304" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F304" s="5">
         <v>46054</v>
       </c>
     </row>
@@ -7047,22 +7047,22 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="1" t="s">
+      <c r="C306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F306" s="3">
+      <c r="E306" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F306" s="5">
         <v>46054</v>
       </c>
     </row>
@@ -7087,22 +7087,22 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D308" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F308" s="3">
+      <c r="E308" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F308" s="5">
         <v>46054</v>
       </c>
     </row>
@@ -7127,42 +7127,42 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D310" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E310" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F310" s="3">
+      <c r="E310" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F310" s="5">
         <v>46055</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D311" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E311" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F311" s="3">
+      <c r="E311" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F311" s="5">
         <v>46055</v>
       </c>
     </row>
@@ -7227,22 +7227,22 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D315" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F315" s="3">
+      <c r="E315" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F315" s="5">
         <v>46055</v>
       </c>
     </row>
@@ -7267,22 +7267,22 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D317" s="1" t="s">
+      <c r="C317" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E317" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F317" s="3">
+      <c r="E317" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F317" s="5">
         <v>46055</v>
       </c>
     </row>
@@ -7307,42 +7307,42 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D319" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E319" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F319" s="3">
+      <c r="E319" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F319" s="5">
         <v>46056</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C320" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D320" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F320" s="3">
+      <c r="E320" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F320" s="5">
         <v>46056</v>
       </c>
     </row>
@@ -7407,62 +7407,62 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D324" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E324" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F324" s="3">
+      <c r="E324" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F324" s="5">
         <v>46057</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F325" s="3">
+      <c r="E325" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F325" s="5">
         <v>46057</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C326" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D326" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F326" s="3">
+      <c r="E326" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F326" s="5">
         <v>46057</v>
       </c>
     </row>
@@ -7507,42 +7507,42 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D329" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F329" s="3">
+      <c r="E329" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F329" s="5">
         <v>46057</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="D330" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F330" s="3">
+      <c r="E330" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F330" s="5">
         <v>46057</v>
       </c>
     </row>
@@ -7607,42 +7607,42 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="D334" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F334" s="3">
+      <c r="E334" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F334" s="5">
         <v>46058</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D335" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E335" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F335" s="3">
+      <c r="E335" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F335" s="5">
         <v>46058</v>
       </c>
     </row>
@@ -7707,62 +7707,62 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D339" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F339" s="3">
+      <c r="E339" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F339" s="5">
         <v>46059</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="D340" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E340" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F340" s="3">
+      <c r="E340" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F340" s="5">
         <v>46059</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341" s="1" t="s">
+      <c r="C341" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F341" s="3">
+      <c r="E341" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F341" s="5">
         <v>46059</v>
       </c>
     </row>
@@ -7807,62 +7807,62 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="D344" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F344" s="3">
+      <c r="E344" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F344" s="5">
         <v>46059</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F345" s="3">
+      <c r="E345" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F345" s="5">
         <v>46059</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D346" s="1" t="s">
+      <c r="C346" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D346" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E346" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F346" s="3">
+      <c r="E346" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F346" s="5">
         <v>46059</v>
       </c>
     </row>
@@ -7887,22 +7887,22 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D348" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E348" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F348" s="3">
+      <c r="E348" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F348" s="5">
         <v>46069</v>
       </c>
     </row>
@@ -7927,22 +7927,22 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D350" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E350" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F350" s="3">
+      <c r="E350" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F350" s="5">
         <v>46069</v>
       </c>
     </row>
@@ -7967,22 +7967,22 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D352" s="1" t="s">
+      <c r="C352" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F352" s="3">
+      <c r="E352" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F352" s="5">
         <v>46069</v>
       </c>
     </row>
@@ -8007,22 +8007,22 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="D354" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E354" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F354" s="3">
+      <c r="E354" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F354" s="5">
         <v>46069</v>
       </c>
     </row>
@@ -8047,22 +8047,22 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F356" s="3">
+      <c r="E356" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F356" s="5">
         <v>46070</v>
       </c>
     </row>
@@ -8087,22 +8087,22 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="D358" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E358" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F358" s="3">
+      <c r="E358" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F358" s="5">
         <v>46070</v>
       </c>
     </row>

--- a/file/history.xlsx
+++ b/file/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB03836-F2C7-4521-A0A0-CA4362F767D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36E0F6-BA91-4D21-8139-4B37EC827DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39BF18F1-6CA4-42F4-B020-2D59954264FB}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="162">
   <si>
     <t>Wizards</t>
   </si>
@@ -930,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD49EDF-97AD-42E2-9203-75390A90C7F2}">
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J350" sqref="J349:J350"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,6 +8106,86 @@
         <v>46070</v>
       </c>
     </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F359" s="3">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F360" s="5">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F361" s="3">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F362" s="5">
+        <v>46081</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
